--- a/outcome/appendix/data/0_impact/Typhus.xlsx
+++ b/outcome/appendix/data/0_impact/Typhus.xlsx
@@ -409,19 +409,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>55.151482543856</v>
+        <v>54.7006922446718</v>
       </c>
       <c r="C2" t="n">
-        <v>1.43974279757936</v>
+        <v>1.4397452210601</v>
       </c>
       <c r="D2" t="n">
-        <v>-18.1681517156918</v>
+        <v>-18.1681494583672</v>
       </c>
       <c r="E2" t="n">
-        <v>99.5512818898217</v>
+        <v>97.7343961312241</v>
       </c>
       <c r="F2" t="n">
-        <v>118.119024481905</v>
+        <v>116.294605312539</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -435,19 +435,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>43.9684006405362</v>
+        <v>44.3494830952891</v>
       </c>
       <c r="C3" t="n">
-        <v>-22.2938837685026</v>
+        <v>-22.2938816064764</v>
       </c>
       <c r="D3" t="n">
-        <v>-43.3188904944105</v>
+        <v>-43.318888529531</v>
       </c>
       <c r="E3" t="n">
-        <v>92.1281502137355</v>
+        <v>93.6152882860792</v>
       </c>
       <c r="F3" t="n">
-        <v>107.215644526676</v>
+        <v>108.773144073698</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -461,19 +461,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>53.3650563816117</v>
+        <v>53.1822880842417</v>
       </c>
       <c r="C4" t="n">
-        <v>-20.6181163170197</v>
+        <v>-20.6181133113321</v>
       </c>
       <c r="D4" t="n">
-        <v>-42.9600688569095</v>
+        <v>-42.9600661226346</v>
       </c>
       <c r="E4" t="n">
-        <v>96.7718107744424</v>
+        <v>96.698012965968</v>
       </c>
       <c r="F4" t="n">
-        <v>113.976692028842</v>
+        <v>114.564368794825</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -487,13 +487,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>62.016191079597</v>
+        <v>61.7337490625573</v>
       </c>
       <c r="C5" t="n">
-        <v>-19.109939081058</v>
+        <v>-19.1099331507829</v>
       </c>
       <c r="D5" t="n">
-        <v>-42.1592289579838</v>
+        <v>-42.1592233468326</v>
       </c>
       <c r="E5" t="n">
         <v>111.914532745138</v>
@@ -513,13 +513,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>96.1547453779889</v>
+        <v>95.5715787364235</v>
       </c>
       <c r="C6" t="n">
-        <v>18.6562237016107</v>
+        <v>18.6562298510198</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.56931018368739</v>
+        <v>-4.56930439845655</v>
       </c>
       <c r="E6" t="n">
         <v>166.905811898782</v>
@@ -539,13 +539,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>103.701179748725</v>
+        <v>102.811262072931</v>
       </c>
       <c r="C7" t="n">
-        <v>24.3191244101208</v>
+        <v>24.3191303807335</v>
       </c>
       <c r="D7" t="n">
-        <v>1.09352849128651</v>
+        <v>1.09353409583194</v>
       </c>
       <c r="E7" t="n">
         <v>175.808323932385</v>
@@ -565,13 +565,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>115.175023956452</v>
+        <v>114.347551691199</v>
       </c>
       <c r="C8" t="n">
-        <v>38.7589094584268</v>
+        <v>38.7589128993971</v>
       </c>
       <c r="D8" t="n">
-        <v>15.4431928834868</v>
+        <v>15.443196078049</v>
       </c>
       <c r="E8" t="n">
         <v>195.657596809099</v>
@@ -591,13 +591,13 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>129.395857425063</v>
+        <v>128.382225779607</v>
       </c>
       <c r="C9" t="n">
-        <v>56.1406193912012</v>
+        <v>56.1406219096129</v>
       </c>
       <c r="D9" t="n">
-        <v>32.6185182596101</v>
+        <v>32.6185207653756</v>
       </c>
       <c r="E9" t="n">
         <v>211.135925047149</v>
@@ -617,13 +617,13 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>127.353637202334</v>
+        <v>126.528934146103</v>
       </c>
       <c r="C10" t="n">
-        <v>50.9297705407213</v>
+        <v>50.9297709799732</v>
       </c>
       <c r="D10" t="n">
-        <v>27.2002498392266</v>
+        <v>27.2002505048498</v>
       </c>
       <c r="E10" t="n">
         <v>207.979488140198</v>
@@ -643,7 +643,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>160.337499166221</v>
+        <v>158.985849247558</v>
       </c>
       <c r="C11" t="n">
         <v>78.8506934626706</v>
@@ -669,16 +669,16 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>121.747581715475</v>
+        <v>121.54912568007</v>
       </c>
       <c r="C12" t="n">
-        <v>37.4755438312804</v>
+        <v>37.4755463347995</v>
       </c>
       <c r="D12" t="n">
-        <v>13.5977059644106</v>
+        <v>13.5977088712492</v>
       </c>
       <c r="E12" t="n">
-        <v>183.258719844765</v>
+        <v>183.300655369834</v>
       </c>
       <c r="F12" t="n">
         <v>217.972611979166</v>
@@ -695,19 +695,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>59.8899200910811</v>
+        <v>61.6494059372637</v>
       </c>
       <c r="C13" t="n">
-        <v>-21.700739961669</v>
+        <v>-21.7007407139765</v>
       </c>
       <c r="D13" t="n">
-        <v>-45.5775666792847</v>
+        <v>-45.5775670298465</v>
       </c>
       <c r="E13" t="n">
-        <v>113.672042454872</v>
+        <v>120.42164324028</v>
       </c>
       <c r="F13" t="n">
-        <v>134.426892223402</v>
+        <v>140.898001279506</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -721,19 +721,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>48.8332593488425</v>
+        <v>48.617747758223</v>
       </c>
       <c r="C14" t="n">
-        <v>-38.9274362395299</v>
+        <v>-38.9274350974469</v>
       </c>
       <c r="D14" t="n">
-        <v>-63.19331089937</v>
+        <v>-63.1933093961765</v>
       </c>
       <c r="E14" t="n">
-        <v>106.72124724786</v>
+        <v>106.958931328343</v>
       </c>
       <c r="F14" t="n">
-        <v>128.922764255974</v>
+        <v>125.62573810281</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -747,19 +747,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>39.7222690464807</v>
+        <v>40.238042620722</v>
       </c>
       <c r="C15" t="n">
-        <v>-52.9880427213689</v>
+        <v>-52.9880410153753</v>
       </c>
       <c r="D15" t="n">
-        <v>-77.3977093169201</v>
+        <v>-77.3977071423696</v>
       </c>
       <c r="E15" t="n">
-        <v>97.3433071886518</v>
+        <v>98.86335160222</v>
       </c>
       <c r="F15" t="n">
-        <v>116.826047591718</v>
+        <v>118.225153003218</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -773,13 +773,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>50.768282609689</v>
+        <v>50.4426196590079</v>
       </c>
       <c r="C16" t="n">
-        <v>-40.9253630963116</v>
+        <v>-40.9253602956363</v>
       </c>
       <c r="D16" t="n">
-        <v>-65.4799961325189</v>
+        <v>-65.4799927490078</v>
       </c>
       <c r="E16" t="n">
         <v>115.119646571754</v>
@@ -799,13 +799,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>61.1209227242303</v>
+        <v>60.5938312645124</v>
       </c>
       <c r="C17" t="n">
-        <v>-31.4091820300491</v>
+        <v>-31.4091768721126</v>
       </c>
       <c r="D17" t="n">
-        <v>-56.0467048138355</v>
+        <v>-56.0466990021194</v>
       </c>
       <c r="E17" t="n">
         <v>137.817422574764</v>
@@ -825,13 +825,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>93.8710980862015</v>
+        <v>92.6577594235671</v>
       </c>
       <c r="C18" t="n">
-        <v>10.7865364020406</v>
+        <v>10.7865409316497</v>
       </c>
       <c r="D18" t="n">
-        <v>-13.8728378953917</v>
+        <v>-13.8728326937621</v>
       </c>
       <c r="E18" t="n">
         <v>203.211528725078</v>
@@ -851,10 +851,10 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>101.133337186355</v>
+        <v>99.4856965440362</v>
       </c>
       <c r="C19" t="n">
-        <v>17.5581053025063</v>
+        <v>17.5581091669918</v>
       </c>
       <c r="D19" t="n">
         <v>-11.6133587917035</v>
@@ -877,10 +877,10 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>113.442793888266</v>
+        <v>111.520537724151</v>
       </c>
       <c r="C20" t="n">
-        <v>30.724550987707</v>
+        <v>30.7245525698213</v>
       </c>
       <c r="D20" t="n">
         <v>-16.9728407600479</v>
@@ -903,7 +903,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>126.511726718155</v>
+        <v>124.335993351635</v>
       </c>
       <c r="C21" t="n">
         <v>34.69672211105</v>
@@ -929,7 +929,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>124.03175249799</v>
+        <v>121.961665546211</v>
       </c>
       <c r="C22" t="n">
         <v>30.762328502611</v>
@@ -955,7 +955,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>155.987809644671</v>
+        <v>153.747049519644</v>
       </c>
       <c r="C23" t="n">
         <v>34.1812773471289</v>
@@ -981,10 +981,10 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>119.646628197027</v>
+        <v>118.274000789376</v>
       </c>
       <c r="C24" t="n">
-        <v>19.4340862887084</v>
+        <v>19.4340931521745</v>
       </c>
       <c r="D24" t="n">
         <v>-29.3909234896678</v>
@@ -1007,19 +1007,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>58.8822350288823</v>
+        <v>61.1541441013314</v>
       </c>
       <c r="C25" t="n">
-        <v>-40.2450612665643</v>
+        <v>-40.2450570052373</v>
       </c>
       <c r="D25" t="n">
-        <v>-64.9772399149665</v>
+        <v>-64.9772348346474</v>
       </c>
       <c r="E25" t="n">
-        <v>132.867013615916</v>
+        <v>141.407066166291</v>
       </c>
       <c r="F25" t="n">
-        <v>159.395577284966</v>
+        <v>169.065916647852</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
@@ -1033,16 +1033,16 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>46.1742384644943</v>
+        <v>45.9472057715267</v>
       </c>
       <c r="C26" t="n">
-        <v>-56.7228450620158</v>
+        <v>-56.7228394612582</v>
       </c>
       <c r="D26" t="n">
-        <v>-81.7412755480857</v>
+        <v>-81.7412692539697</v>
       </c>
       <c r="E26" t="n">
-        <v>116.841567812128</v>
+        <v>117.915925892281</v>
       </c>
       <c r="F26" t="n">
         <v>147.284973106575</v>
@@ -1059,13 +1059,13 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>37.2510424779958</v>
+        <v>37.7637416620492</v>
       </c>
       <c r="C27" t="n">
-        <v>-69.4290174261803</v>
+        <v>-69.4290126804021</v>
       </c>
       <c r="D27" t="n">
-        <v>-94.5131357541212</v>
+        <v>-94.5131302998012</v>
       </c>
       <c r="E27" t="n">
         <v>108.139388653743</v>
@@ -1085,13 +1085,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>48.2225040797263</v>
+        <v>47.8551115814084</v>
       </c>
       <c r="C28" t="n">
-        <v>-55.8222388102481</v>
+        <v>-55.8222348330926</v>
       </c>
       <c r="D28" t="n">
-        <v>-80.9724300498073</v>
+        <v>-80.9724253461325</v>
       </c>
       <c r="E28" t="n">
         <v>132.179396888313</v>
@@ -1111,13 +1111,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>58.9134164705437</v>
+        <v>58.2378373929581</v>
       </c>
       <c r="C29" t="n">
-        <v>-45.0299258478011</v>
+        <v>-45.0299212567014</v>
       </c>
       <c r="D29" t="n">
-        <v>-70.2177533230804</v>
+        <v>-70.217747992831</v>
       </c>
       <c r="E29" t="n">
         <v>157.727739373751</v>
@@ -1137,10 +1137,10 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>90.8534309863438</v>
+        <v>89.4004512107426</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.06744384931748</v>
+        <v>-2.06744108934415</v>
       </c>
       <c r="D30" t="n">
         <v>-51.1927055976087</v>
@@ -1163,10 +1163,10 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>97.4907243244475</v>
+        <v>95.4110612064841</v>
       </c>
       <c r="C31" t="n">
-        <v>4.93111281336109</v>
+        <v>4.9311144284175</v>
       </c>
       <c r="D31" t="n">
         <v>-56.2961276495034</v>
@@ -1189,7 +1189,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>109.791951019541</v>
+        <v>107.122668404497</v>
       </c>
       <c r="C32" t="n">
         <v>3.99430499015918</v>
@@ -1215,7 +1215,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>122.556558551391</v>
+        <v>119.384366164419</v>
       </c>
       <c r="C33" t="n">
         <v>1.5775094548242</v>
@@ -1241,7 +1241,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>120.16886522045</v>
+        <v>116.773153142204</v>
       </c>
       <c r="C34" t="n">
         <v>-1.02693141346549</v>
@@ -1267,7 +1267,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>151.875843910783</v>
+        <v>148.274169556967</v>
       </c>
       <c r="C35" t="n">
         <v>-4.35912194125433</v>
@@ -1293,7 +1293,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>117.36603666767</v>
+        <v>114.051938237949</v>
       </c>
       <c r="C36" t="n">
         <v>-5.2013434921009</v>
@@ -1319,19 +1319,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>58.0288263424559</v>
+        <v>59.7913659956331</v>
       </c>
       <c r="C37" t="n">
-        <v>-54.9891411163501</v>
+        <v>-54.9891352590769</v>
       </c>
       <c r="D37" t="n">
-        <v>-80.2178977201176</v>
+        <v>-80.2178910748292</v>
       </c>
       <c r="E37" t="n">
-        <v>144.18450765717</v>
+        <v>153.336570872073</v>
       </c>
       <c r="F37" t="n">
-        <v>180.352367233825</v>
+        <v>180.604580767494</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -1345,16 +1345,16 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>43.6295381943946</v>
+        <v>43.5152370319378</v>
       </c>
       <c r="C38" t="n">
-        <v>-71.3490902359779</v>
+        <v>-71.3490831952095</v>
       </c>
       <c r="D38" t="n">
-        <v>-96.8455437812689</v>
+        <v>-96.8455360986742</v>
       </c>
       <c r="E38" t="n">
-        <v>128.75806627352</v>
+        <v>129.791179422479</v>
       </c>
       <c r="F38" t="n">
         <v>168.027059654186</v>
@@ -1371,13 +1371,13 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>34.833551044208</v>
+        <v>35.4368232903027</v>
       </c>
       <c r="C39" t="n">
-        <v>-83.8351329518213</v>
+        <v>-83.8351272280546</v>
       </c>
       <c r="D39" t="n">
-        <v>-109.386520278449</v>
+        <v>-109.386513917873</v>
       </c>
       <c r="E39" t="n">
         <v>121.569170229472</v>
